--- a/biology/Botanique/Violette_du_Teide/Violette_du_Teide.xlsx
+++ b/biology/Botanique/Violette_du_Teide/Violette_du_Teide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola cheiranthifolia
 La Violette du Teide, Viola cheiranthifolia, est une espèce de plantes herbacées du genre Viola et de la famille des Violacées. Elle est endémique des pentes de Teide et de sa caldeira, survivant à des altitudes allant de 2 400 à 3 600 m. Elle n'est visible qu'au printemps pendant environ 3 semaines.
